--- a/MONITOR/Taller4/Estudiantes.xlsx
+++ b/MONITOR/Taller4/Estudiantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\revisionTrabajos\MONITOR\Taller4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UJ\UJ2021-01\Monitorias\revisionTrabajos\MONITOR\Taller4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62825EE-138D-4CCA-A5CF-72383A450010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9373F329-CAA9-4286-A876-F63D424EACC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1905" windowWidth="20640" windowHeight="11160" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taller3" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Taller3!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Estudiante</t>
   </si>
@@ -155,6 +152,15 @@
   <si>
     <t>PUNTO4</t>
   </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>Punto 1 y 2 muy parecido al de Daniel Nuñez</t>
+  </si>
+  <si>
+    <t>Punto 1 y 2 muy parecido al de Daniel Victoria</t>
+  </si>
 </sst>
 </file>
 
@@ -229,7 +235,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +252,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -380,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -418,6 +430,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4343,7 +4358,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="I22" sqref="I22:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -4411,12 +4426,24 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="6">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
@@ -4515,12 +4542,24 @@
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6">
+        <v>9.6</v>
+      </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
@@ -4568,12 +4607,27 @@
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="15">
+        <v>9</v>
+      </c>
+      <c r="C16" s="15">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
@@ -4620,12 +4674,27 @@
       <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="B20" s="15">
+        <v>9</v>
+      </c>
+      <c r="C20" s="15">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="E20" s="6">
+        <v>7</v>
+      </c>
+      <c r="F20" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="G20" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
@@ -4672,12 +4741,24 @@
       <c r="A24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="6">
+        <v>10</v>
+      </c>
+      <c r="C24" s="6">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="F24" s="6">
+        <v>10</v>
+      </c>
+      <c r="G24" s="6">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
@@ -4763,12 +4844,24 @@
       <c r="A31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="B31" s="6">
+        <v>10</v>
+      </c>
+      <c r="C31" s="6">
+        <v>9</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="6">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>

--- a/MONITOR/Taller4/Estudiantes.xlsx
+++ b/MONITOR/Taller4/Estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UJ\UJ2021-01\Monitorias\revisionTrabajos\MONITOR\Taller4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9373F329-CAA9-4286-A876-F63D424EACC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614B4522-2549-4212-8387-66AC58CDBE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Estudiante</t>
   </si>
@@ -161,6 +161,24 @@
   <si>
     <t>Punto 1 y 2 muy parecido al de Daniel Victoria</t>
   </si>
+  <si>
+    <t>No vi el punto 3.2 del Emmanuel (tampoco retorna la cantidad de vocales de 3.1, pero si las cuenta, así que se lo valí)</t>
+  </si>
+  <si>
+    <t>En el punto 1 hace uso de la librería string, tampoco vi el punto 3</t>
+  </si>
+  <si>
+    <t>Me preocupa como escribe las cadenas</t>
+  </si>
+  <si>
+    <t>No vi el punto 3.2</t>
+  </si>
+  <si>
+    <t>En el punto 3.2 usa posicion dentro del arreglo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el punto 3.2 usa posicion dentro del arreglo, pero estaría bien que lo revises </t>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +253,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -415,6 +439,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -432,7 +459,7 @@
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4358,7 +4385,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I22" sqref="I22:I23"/>
+      <selection pane="topRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -4370,24 +4397,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:15" ht="46.5" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -4411,16 +4438,16 @@
       <c r="G3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -4451,12 +4478,24 @@
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="6">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
@@ -4464,12 +4503,24 @@
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="F6" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="G6" s="6">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
@@ -4477,12 +4528,27 @@
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="6">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
@@ -4490,12 +4556,27 @@
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="6">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D8" s="6">
+        <v>10</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
@@ -4516,12 +4597,27 @@
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
@@ -4567,12 +4663,24 @@
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E13" s="6">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
@@ -4580,12 +4688,24 @@
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="6">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -4594,12 +4714,24 @@
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="C15" s="6">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="F15" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="G15" s="6">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
@@ -4607,10 +4739,10 @@
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="10">
         <v>9</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="10">
         <v>10</v>
       </c>
       <c r="D16" s="6">
@@ -4648,12 +4780,27 @@
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="B18" s="6">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G18" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
@@ -4661,12 +4808,24 @@
       <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="6">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
+      <c r="F19" s="6">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
@@ -4674,10 +4833,10 @@
       <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="10">
         <v>9</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="10">
         <v>10</v>
       </c>
       <c r="D20" s="6">
@@ -4728,12 +4887,27 @@
       <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="B23" s="6">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="D23" s="6">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6">
+        <v>10</v>
+      </c>
+      <c r="F23" s="6">
+        <v>10</v>
+      </c>
+      <c r="G23" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
@@ -4779,12 +4953,27 @@
       <c r="A26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="B26" s="6">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>10</v>
+      </c>
+      <c r="G26" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H26" t="s">
+        <v>48</v>
+      </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
@@ -4805,12 +4994,24 @@
       <c r="A28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="B28" s="6">
+        <v>10</v>
+      </c>
+      <c r="C28" s="6">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6">
+        <v>10</v>
+      </c>
+      <c r="E28" s="6">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6">
+        <v>10</v>
+      </c>
+      <c r="G28" s="6">
+        <v>10</v>
+      </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
@@ -4869,12 +5070,24 @@
       <c r="A32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="B32" s="6">
+        <v>10</v>
+      </c>
+      <c r="C32" s="6">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6">
+        <v>10</v>
+      </c>
+      <c r="F32" s="6">
+        <v>10</v>
+      </c>
+      <c r="G32" s="6">
+        <v>10</v>
+      </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
     </row>

--- a/MONITOR/Taller4/Estudiantes.xlsx
+++ b/MONITOR/Taller4/Estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UJ\UJ2021-01\Monitorias\revisionTrabajos\MONITOR\Taller4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614B4522-2549-4212-8387-66AC58CDBE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43EB828-AAEC-4F40-8DF7-BDF4181E9768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,6 +442,9 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -457,9 +460,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4385,7 +4385,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G28" sqref="G28"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -4397,24 +4397,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:15" ht="46.5" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -4438,16 +4438,16 @@
       <c r="G3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -4537,7 +4537,7 @@
       <c r="D7" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="6">
@@ -4565,7 +4565,7 @@
       <c r="D8" s="6">
         <v>10</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="6">
@@ -4597,19 +4597,19 @@
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="11">
         <v>1</v>
       </c>
       <c r="C10" s="6">
         <v>10</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="11">
         <v>1</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="11">
         <v>1</v>
       </c>
       <c r="G10" s="6">
@@ -4625,12 +4625,24 @@
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E11" s="6">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G11" s="6">
+        <v>9.4</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
@@ -4767,12 +4779,24 @@
       <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="B17" s="6">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>10</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
@@ -4861,12 +4885,24 @@
       <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="B21" s="6">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6">
+        <v>10</v>
+      </c>
+      <c r="G21" s="6">
+        <v>10</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
@@ -4874,12 +4910,24 @@
       <c r="A22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="B22" s="6">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6">
+        <v>10</v>
+      </c>
+      <c r="G22" s="6">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
     </row>
@@ -4940,12 +4988,24 @@
       <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="B25" s="6">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>10</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
@@ -4962,7 +5022,7 @@
       <c r="D26" s="6">
         <v>10</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="11">
         <v>1</v>
       </c>
       <c r="F26" s="6">
@@ -5019,12 +5079,24 @@
       <c r="A29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="B29" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="C29" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="D29" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>7</v>
+      </c>
+      <c r="F29" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="G29" s="6">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
@@ -5095,12 +5167,24 @@
       <c r="A33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="B33" s="6">
+        <v>10</v>
+      </c>
+      <c r="C33" s="6">
+        <v>10</v>
+      </c>
+      <c r="D33" s="6">
+        <v>10</v>
+      </c>
+      <c r="E33" s="6">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6">
+        <v>10</v>
+      </c>
+      <c r="G33" s="6">
+        <v>9.6</v>
+      </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>

--- a/MONITOR/Taller4/Estudiantes.xlsx
+++ b/MONITOR/Taller4/Estudiantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UJ\UJ2021-01\Monitorias\revisionTrabajos\MONITOR\Taller4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\revisionTrabajos\MONITOR\Taller4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43EB828-AAEC-4F40-8DF7-BDF4181E9768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D235B2-3CD8-46AD-85F0-FE35145E4F8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1905" windowWidth="20640" windowHeight="11160" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taller3" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,53 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Taller3!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Luisa Fernanda Rincon Perez</author>
+  </authors>
+  <commentList>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{7E3B52BD-4B8E-47B3-92DC-3828FC1A987C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Luisa Fernanda Rincon Perez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+La parte de cambiar a mayúscula la vocal sólo la primera vez que esté en la oración</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -187,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -250,6 +287,19 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -416,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -462,6 +512,7 @@
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4380,19 +4431,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="32.5703125" style="1" customWidth="1"/>
     <col min="2" max="7" width="11" customWidth="1"/>
-    <col min="8" max="15" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12" hidden="1" customWidth="1"/>
+    <col min="10" max="15" width="12" customWidth="1"/>
     <col min="16" max="972" width="8.5703125"/>
   </cols>
   <sheetData>
@@ -4471,6 +4524,10 @@
       <c r="G4" s="6">
         <v>9.8000000000000007</v>
       </c>
+      <c r="I4" s="17">
+        <f>+AVERAGE(B4:G4)/2</f>
+        <v>4.9833333333333334</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
@@ -4496,6 +4553,10 @@
       <c r="G5" s="6">
         <v>9.8000000000000007</v>
       </c>
+      <c r="I5" s="17">
+        <f t="shared" ref="I5:I34" si="0">+AVERAGE(B5:G5)/2</f>
+        <v>4.9833333333333334</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
@@ -4521,6 +4582,10 @@
       <c r="G6" s="6">
         <v>9.8000000000000007</v>
       </c>
+      <c r="I6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.916666666666667</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
@@ -4549,6 +4614,10 @@
       <c r="H7" t="s">
         <v>43</v>
       </c>
+      <c r="I7" s="17">
+        <f t="shared" si="0"/>
+        <v>4.2166666666666659</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
@@ -4577,6 +4646,10 @@
       <c r="H8" t="s">
         <v>46</v>
       </c>
+      <c r="I8" s="17">
+        <f t="shared" si="0"/>
+        <v>4.2166666666666659</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
@@ -4590,6 +4663,10 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
+      <c r="I9" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
@@ -4618,6 +4695,10 @@
       <c r="H10" t="s">
         <v>44</v>
       </c>
+      <c r="I10" s="17">
+        <f t="shared" si="0"/>
+        <v>1.9666666666666668</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
@@ -4643,6 +4724,10 @@
       <c r="G11" s="6">
         <v>9.4</v>
       </c>
+      <c r="I11" s="17">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
@@ -4668,6 +4753,10 @@
       <c r="G12" s="6">
         <v>9.6</v>
       </c>
+      <c r="I12" s="17">
+        <f t="shared" si="0"/>
+        <v>4.9666666666666668</v>
+      </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
@@ -4692,6 +4781,10 @@
       </c>
       <c r="G13" s="6">
         <v>9.8000000000000007</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="0"/>
+        <v>4.9666666666666659</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -4719,6 +4812,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H14" s="8"/>
+      <c r="I14" s="17">
+        <f t="shared" si="0"/>
+        <v>4.9833333333333334</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
@@ -4744,6 +4841,10 @@
       <c r="G15" s="6">
         <v>9.8000000000000007</v>
       </c>
+      <c r="I15" s="17">
+        <f t="shared" si="0"/>
+        <v>4.7166666666666677</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
@@ -4772,6 +4873,10 @@
       <c r="H16" t="s">
         <v>42</v>
       </c>
+      <c r="I16" s="17">
+        <f t="shared" si="0"/>
+        <v>4.8166666666666664</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
@@ -4797,6 +4902,10 @@
       <c r="G17" s="6">
         <v>10</v>
       </c>
+      <c r="I17" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
@@ -4825,6 +4934,10 @@
       <c r="H18" t="s">
         <v>47</v>
       </c>
+      <c r="I18" s="17">
+        <f t="shared" si="0"/>
+        <v>4.2166666666666659</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
@@ -4850,6 +4963,10 @@
       <c r="G19" s="6">
         <v>9.8000000000000007</v>
       </c>
+      <c r="I19" s="17">
+        <f t="shared" si="0"/>
+        <v>4.9833333333333334</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
@@ -4878,6 +4995,10 @@
       <c r="H20" t="s">
         <v>41</v>
       </c>
+      <c r="I20" s="17">
+        <f t="shared" si="0"/>
+        <v>4.4833333333333334</v>
+      </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
@@ -4903,6 +5024,10 @@
       <c r="G21" s="6">
         <v>10</v>
       </c>
+      <c r="I21" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
@@ -4928,6 +5053,10 @@
       <c r="G22" s="6">
         <v>9.8000000000000007</v>
       </c>
+      <c r="I22" s="17">
+        <f t="shared" si="0"/>
+        <v>4.9833333333333334</v>
+      </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
     </row>
@@ -4956,6 +5085,10 @@
       <c r="H23" t="s">
         <v>45</v>
       </c>
+      <c r="I23" s="17">
+        <f t="shared" si="0"/>
+        <v>4.8666666666666671</v>
+      </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
@@ -4981,6 +5114,10 @@
       <c r="G24" s="6">
         <v>9.8000000000000007</v>
       </c>
+      <c r="I24" s="17">
+        <f t="shared" si="0"/>
+        <v>4.9333333333333336</v>
+      </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
@@ -5006,6 +5143,10 @@
       <c r="G25" s="6">
         <v>10</v>
       </c>
+      <c r="I25" s="17">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
@@ -5023,7 +5164,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26" s="6">
         <v>10</v>
@@ -5033,6 +5174,10 @@
       </c>
       <c r="H26" t="s">
         <v>48</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="0"/>
+        <v>4.9833333333333334</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -5047,6 +5192,10 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
+      <c r="I27" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
     </row>
@@ -5072,6 +5221,10 @@
       <c r="G28" s="6">
         <v>10</v>
       </c>
+      <c r="I28" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
@@ -5097,6 +5250,10 @@
       <c r="G29" s="6">
         <v>8.1999999999999993</v>
       </c>
+      <c r="I29" s="17">
+        <f t="shared" si="0"/>
+        <v>3.8833333333333329</v>
+      </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
@@ -5110,6 +5267,10 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
+      <c r="I30" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
@@ -5135,6 +5296,10 @@
       <c r="G31" s="6">
         <v>8.8000000000000007</v>
       </c>
+      <c r="I31" s="17">
+        <f t="shared" si="0"/>
+        <v>4.6333333333333337</v>
+      </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
@@ -5160,6 +5325,10 @@
       <c r="G32" s="6">
         <v>10</v>
       </c>
+      <c r="I32" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
     </row>
@@ -5185,6 +5354,10 @@
       <c r="G33" s="6">
         <v>9.6</v>
       </c>
+      <c r="I33" s="17">
+        <f t="shared" si="0"/>
+        <v>4.9666666666666668</v>
+      </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
@@ -5198,6 +5371,10 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
+      <c r="I34" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
@@ -5210,5 +5387,6 @@
   <pageMargins left="0.27777777777777801" right="0.27777777777777801" top="0.27777777777777801" bottom="0.27777777777777801" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>